--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>Workout Bitch</t>
   </si>
@@ -197,6 +197,36 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>TWIST</t>
+  </si>
+  <si>
+    <t>Reps</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>LAT RAISE</t>
+  </si>
+  <si>
+    <t>SWING</t>
+  </si>
+  <si>
+    <t>SQUAT</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>SHRUG</t>
+  </si>
+  <si>
+    <t>CURL</t>
   </si>
 </sst>
 </file>
@@ -324,7 +354,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -386,8 +416,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +478,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,14 +493,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -473,8 +511,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +549,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -535,6 +580,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -894,15 +940,15 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="26">
         <v>41579</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="O4" t="s">
         <v>14</v>
       </c>
@@ -1066,15 +1112,15 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="24">
+      <c r="B12" s="26">
         <v>41609</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="2" t="s">
@@ -1207,15 +1253,15 @@
       <c r="H18" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="24">
+      <c r="B20" s="26">
         <v>41640</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
@@ -1364,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1412,54 +1458,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="26">
+      <c r="E3" s="28">
         <v>41645</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28">
         <v>41647</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28">
         <v>41649</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28">
         <v>41650</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26">
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28">
         <v>41660</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26">
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28">
         <v>41663</v>
       </c>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26">
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28">
         <v>41671</v>
       </c>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26">
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28">
         <v>41663</v>
       </c>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
     </row>
     <row r="4" spans="2:36">
       <c r="E4" s="29">
@@ -1625,7 +1671,7 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -1644,7 +1690,7 @@
         <f>E6*F6*G6</f>
         <v>3375</v>
       </c>
-      <c r="O6" s="30"/>
+      <c r="O6" s="32"/>
       <c r="Q6" s="6">
         <v>135</v>
       </c>
@@ -1672,12 +1718,12 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="30"/>
+      <c r="B7" s="32"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="O7" s="30"/>
+      <c r="O7" s="32"/>
       <c r="Q7" s="6">
         <v>185</v>
       </c>
@@ -1693,12 +1739,12 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="O8" s="30"/>
+      <c r="O8" s="32"/>
       <c r="Q8" s="6">
         <v>185</v>
       </c>
@@ -1714,7 +1760,7 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -1731,14 +1777,14 @@
         <f t="shared" ref="H9:H21" si="1">E9*F9*G9</f>
         <v>360</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="O9" s="32"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="30"/>
+      <c r="B10" s="32"/>
       <c r="E10" s="1">
         <v>70</v>
       </c>
@@ -1752,14 +1798,14 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="32"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1822,7 @@
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="O11" s="30"/>
+      <c r="O11" s="32"/>
       <c r="Q11" s="6">
         <v>95</v>
       </c>
@@ -1792,12 +1838,12 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="O12" s="30"/>
+      <c r="O12" s="32"/>
       <c r="Q12" s="6">
         <v>135</v>
       </c>
@@ -1813,19 +1859,19 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="O13" s="30"/>
+      <c r="O13" s="32"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -1833,7 +1879,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="O14" s="30"/>
+      <c r="O14" s="32"/>
       <c r="Q14" s="6">
         <v>20</v>
       </c>
@@ -1849,12 +1895,12 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="O15" s="30"/>
+      <c r="O15" s="32"/>
       <c r="Q15" s="6">
         <v>30</v>
       </c>
@@ -1870,7 +1916,7 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="30"/>
+      <c r="B16" s="32"/>
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -1878,7 +1924,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="O16" s="30"/>
+      <c r="O16" s="32"/>
       <c r="Q16" s="6">
         <v>105</v>
       </c>
@@ -1894,12 +1940,12 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="O17" s="30"/>
+      <c r="O17" s="32"/>
       <c r="Q17" s="6">
         <v>120</v>
       </c>
@@ -1915,12 +1961,12 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="O18" s="30"/>
+      <c r="O18" s="32"/>
       <c r="Q18" s="6">
         <v>150</v>
       </c>
@@ -1936,7 +1982,7 @@
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
@@ -1951,7 +1997,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="30"/>
+      <c r="O19" s="32"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14">
         <v>80</v>
@@ -1972,7 +2018,7 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="30"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -1985,7 +2031,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="30"/>
+      <c r="O20" s="32"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14">
         <v>90</v>
@@ -2006,7 +2052,7 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -2030,7 +2076,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="30"/>
+      <c r="O21" s="32"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14">
         <v>40</v>
@@ -2231,7 +2277,7 @@
       <c r="AF25" s="18"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
@@ -2276,7 +2322,7 @@
       </c>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="28"/>
+      <c r="B27" s="31"/>
       <c r="I27" s="1">
         <v>135</v>
       </c>
@@ -2315,7 +2361,7 @@
       </c>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="28"/>
+      <c r="B28" s="31"/>
       <c r="I28" s="1">
         <v>135</v>
       </c>
@@ -2354,7 +2400,7 @@
       </c>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="28"/>
+      <c r="B29" s="31"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -2375,7 +2421,7 @@
       </c>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="28"/>
+      <c r="B30" s="31"/>
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -2399,7 +2445,7 @@
       <c r="AF30" s="18"/>
     </row>
     <row r="31" spans="2:36">
-      <c r="B31" s="28"/>
+      <c r="B31" s="31"/>
       <c r="I31" s="1">
         <v>115</v>
       </c>
@@ -2420,7 +2466,7 @@
       <c r="AF31" s="18"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="28"/>
+      <c r="B32" s="31"/>
       <c r="I32" s="1">
         <v>115</v>
       </c>
@@ -2441,7 +2487,7 @@
       <c r="AF32" s="18"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" t="s">
         <v>56</v>
       </c>
@@ -2456,7 +2502,7 @@
       <c r="AF33" s="18"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="28"/>
+      <c r="B34" s="31"/>
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -2480,7 +2526,7 @@
       <c r="AF34" s="18"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="28"/>
+      <c r="B35" s="31"/>
       <c r="I35" s="1">
         <v>150</v>
       </c>
@@ -2501,7 +2547,7 @@
       <c r="AF35" s="18"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="28"/>
+      <c r="B36" s="31"/>
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -2525,7 +2571,7 @@
       <c r="AF36" s="18"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="28"/>
+      <c r="B37" s="31"/>
       <c r="I37" s="1">
         <v>25</v>
       </c>
@@ -2546,7 +2592,7 @@
       <c r="AF37" s="18"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="28"/>
+      <c r="B38" s="31"/>
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -2570,7 +2616,7 @@
       <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="28"/>
+      <c r="B39" s="31"/>
       <c r="C39" t="s">
         <v>50</v>
       </c>
@@ -2594,7 +2640,7 @@
       <c r="AF39" s="18"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="28"/>
+      <c r="B40" s="31"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2615,7 +2661,7 @@
       <c r="AF40" s="18"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="28"/>
+      <c r="B41" s="31"/>
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -2648,7 +2694,7 @@
       <c r="AF41" s="18"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="31"/>
+      <c r="B42" s="33"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
@@ -2669,7 +2715,7 @@
       <c r="AF42" s="18"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2712,7 +2758,7 @@
       <c r="AF43" s="18"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="28"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="13" t="s">
         <v>36</v>
       </c>
@@ -2774,7 +2820,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="28"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2812,7 +2858,7 @@
       <c r="AB45" s="9"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="28"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="13" t="s">
         <v>37</v>
       </c>
@@ -2861,7 +2907,7 @@
       <c r="AB46" s="9"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="28"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -3115,6 +3161,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -3123,18 +3181,6 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -3147,10 +3193,25 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AJ4</xm:f>
+              <xm:sqref>D4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="5" tint="-0.249977111117893"/>
           <x14:colorNegative theme="6"/>
@@ -3167,22 +3228,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AJ4</xm:f>
-              <xm:sqref>D4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3194,15 +3239,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="35">
+        <v>41676</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="36">
+        <f>SUM(E4:E8)</f>
+        <v>3570</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="24">
+        <v>35</v>
+      </c>
+      <c r="C4" s="24">
+        <v>20</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2</v>
+      </c>
+      <c r="E4" s="24">
+        <f>B4*C4*D4</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="24">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:E10" si="0">B5*C5*D5</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="24">
+        <v>35</v>
+      </c>
+      <c r="C6" s="24">
+        <v>10</v>
+      </c>
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="24">
+        <v>35</v>
+      </c>
+      <c r="C7" s="24">
+        <v>12</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="24">
+        <v>35</v>
+      </c>
+      <c r="C8" s="24">
+        <v>10</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="24">
+        <v>35</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="24">
+        <v>35</v>
+      </c>
+      <c r="C10" s="24">
+        <v>10</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3230,16 +3448,16 @@
       <c r="B2" s="23">
         <v>41666</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="13" thickTop="1">
       <c r="C3" s="2" t="s">

--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>Workout Bitch</t>
   </si>
@@ -354,7 +354,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -418,8 +418,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,16 +488,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,13 +506,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -517,8 +524,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +560,8 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -581,6 +593,8 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -940,15 +954,15 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="28">
         <v>41579</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="O4" t="s">
         <v>14</v>
       </c>
@@ -1112,15 +1126,15 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="26">
+      <c r="B12" s="28">
         <v>41609</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="2" t="s">
@@ -1253,15 +1267,15 @@
       <c r="H18" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="26">
+      <c r="B20" s="28">
         <v>41640</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
@@ -1458,112 +1472,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="28">
+      <c r="E3" s="35">
         <v>41645</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35">
         <v>41647</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35">
         <v>41649</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35">
         <v>41650</v>
       </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28">
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35">
         <v>41660</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28">
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35">
         <v>41663</v>
       </c>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28">
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35">
         <v>41671</v>
       </c>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28">
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35">
         <v>41663</v>
       </c>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="E4" s="29">
+      <c r="E4" s="32">
         <f>SUM(H6:H21)</f>
         <v>9295</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32">
         <f>SUM(L26:L42)</f>
         <v>13880</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32">
         <f>SUM(P43:P47)</f>
         <v>9965</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32">
         <f>SUM(T6:T24)</f>
         <v>18430</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29">
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32">
         <f>SUM(X44:X51)</f>
         <v>23730</v>
       </c>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29">
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32">
         <f>SUM(AB23:AB53)</f>
         <v>17170</v>
       </c>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32">
         <f>SUM(AF23:AF53)</f>
         <v>5424</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29">
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32">
         <f>SUM(AJ23:AJ53)</f>
         <v>250</v>
       </c>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
     </row>
     <row r="5" spans="2:36" ht="35" customHeight="1">
       <c r="B5" s="16"/>
@@ -1671,7 +1685,7 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -1690,7 +1704,7 @@
         <f>E6*F6*G6</f>
         <v>3375</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="33"/>
       <c r="Q6" s="6">
         <v>135</v>
       </c>
@@ -1718,12 +1732,12 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="O7" s="32"/>
+      <c r="O7" s="33"/>
       <c r="Q7" s="6">
         <v>185</v>
       </c>
@@ -1739,12 +1753,12 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="O8" s="32"/>
+      <c r="O8" s="33"/>
       <c r="Q8" s="6">
         <v>185</v>
       </c>
@@ -1760,7 +1774,7 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -1777,14 +1791,14 @@
         <f t="shared" ref="H9:H21" si="1">E9*F9*G9</f>
         <v>360</v>
       </c>
-      <c r="O9" s="32"/>
+      <c r="O9" s="33"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="E10" s="1">
         <v>70</v>
       </c>
@@ -1798,14 +1812,14 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="33"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +1836,7 @@
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="33"/>
       <c r="Q11" s="6">
         <v>95</v>
       </c>
@@ -1838,12 +1852,12 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="33"/>
       <c r="Q12" s="6">
         <v>135</v>
       </c>
@@ -1859,19 +1873,19 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="33"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1893,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="33"/>
       <c r="Q14" s="6">
         <v>20</v>
       </c>
@@ -1895,12 +1909,12 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="O15" s="32"/>
+      <c r="O15" s="33"/>
       <c r="Q15" s="6">
         <v>30</v>
       </c>
@@ -1916,7 +1930,7 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -1924,7 +1938,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="O16" s="32"/>
+      <c r="O16" s="33"/>
       <c r="Q16" s="6">
         <v>105</v>
       </c>
@@ -1940,12 +1954,12 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="33"/>
       <c r="Q17" s="6">
         <v>120</v>
       </c>
@@ -1961,12 +1975,12 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="O18" s="32"/>
+      <c r="O18" s="33"/>
       <c r="Q18" s="6">
         <v>150</v>
       </c>
@@ -1982,7 +1996,7 @@
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +2011,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="32"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14">
         <v>80</v>
@@ -2018,7 +2032,7 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -2031,7 +2045,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="32"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14">
         <v>90</v>
@@ -2052,7 +2066,7 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2090,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="32"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14">
         <v>40</v>
@@ -2694,7 +2708,7 @@
       <c r="AF41" s="18"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="33"/>
+      <c r="B42" s="34"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
@@ -3161,18 +3175,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -3181,6 +3183,18 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -3196,6 +3210,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="5" tint="-0.249977111117893"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="6" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="6" tint="-0.249977111117893"/>
+          <x14:colorLow theme="6" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AF4</xm:f>
+              <xm:sqref>D5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -3212,22 +3242,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="5" tint="-0.249977111117893"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="6" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="6" tint="-0.249977111117893"/>
-          <x14:colorLow theme="6" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AF4</xm:f>
-              <xm:sqref>D5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3239,32 +3253,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="35">
+    <row r="1" spans="1:9">
+      <c r="B1" s="36">
         <v>41676</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="36">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36">
+        <v>41676</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="37">
         <f>SUM(E4:E8)</f>
         <v>3570</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f>SUM(I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
@@ -3277,8 +3314,20 @@
       <c r="E3" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3296,7 +3345,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3314,7 +3363,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -3332,7 +3381,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -3349,8 +3398,17 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="26">
+        <v>35</v>
+      </c>
+      <c r="G7" s="26">
+        <v>20</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -3368,7 +3426,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -3386,7 +3444,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -3405,11 +3463,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E10">
+  <conditionalFormatting sqref="E4:E10 F7:H7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3448,16 +3508,16 @@
       <c r="B2" s="23">
         <v>41666</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="13" thickTop="1">
       <c r="C3" s="2" t="s">

--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -500,23 +500,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,11 +1424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D4:D5"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1472,112 +1472,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="35">
+      <c r="E3" s="30">
         <v>41645</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30">
         <v>41647</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30">
         <v>41649</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30">
         <v>41650</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30">
         <v>41660</v>
       </c>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35">
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30">
         <v>41663</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35">
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30">
         <v>41671</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35">
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30">
         <v>41663</v>
       </c>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <f>SUM(H6:H21)</f>
         <v>9295</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31">
         <f>SUM(L26:L42)</f>
         <v>13880</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31">
         <f>SUM(P43:P47)</f>
         <v>9965</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32">
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31">
         <f>SUM(T6:T24)</f>
         <v>18430</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31">
         <f>SUM(X44:X51)</f>
         <v>23730</v>
       </c>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31">
         <f>SUM(AB23:AB53)</f>
         <v>17170</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31">
         <f>SUM(AF23:AF53)</f>
         <v>5424</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32">
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31">
         <f>SUM(AJ23:AJ53)</f>
         <v>250</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
     </row>
     <row r="5" spans="2:36" ht="35" customHeight="1">
       <c r="B5" s="16"/>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -1704,7 +1704,7 @@
         <f>E6*F6*G6</f>
         <v>3375</v>
       </c>
-      <c r="O6" s="33"/>
+      <c r="O6" s="34"/>
       <c r="Q6" s="6">
         <v>135</v>
       </c>
@@ -1732,12 +1732,12 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="O7" s="33"/>
+      <c r="O7" s="34"/>
       <c r="Q7" s="6">
         <v>185</v>
       </c>
@@ -1753,12 +1753,12 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="O8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="Q8" s="6">
         <v>185</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -1791,14 +1791,14 @@
         <f t="shared" ref="H9:H21" si="1">E9*F9*G9</f>
         <v>360</v>
       </c>
-      <c r="O9" s="33"/>
+      <c r="O9" s="34"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="E10" s="1">
         <v>70</v>
       </c>
@@ -1812,14 +1812,14 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="34"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1836,7 @@
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="O11" s="33"/>
+      <c r="O11" s="34"/>
       <c r="Q11" s="6">
         <v>95</v>
       </c>
@@ -1852,12 +1852,12 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="O12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="Q12" s="6">
         <v>135</v>
       </c>
@@ -1873,19 +1873,19 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="O13" s="33"/>
+      <c r="O13" s="34"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="O14" s="33"/>
+      <c r="O14" s="34"/>
       <c r="Q14" s="6">
         <v>20</v>
       </c>
@@ -1909,12 +1909,12 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="O15" s="33"/>
+      <c r="O15" s="34"/>
       <c r="Q15" s="6">
         <v>30</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="O16" s="33"/>
+      <c r="O16" s="34"/>
       <c r="Q16" s="6">
         <v>105</v>
       </c>
@@ -1954,12 +1954,12 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="O17" s="33"/>
+      <c r="O17" s="34"/>
       <c r="Q17" s="6">
         <v>120</v>
       </c>
@@ -1975,12 +1975,12 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="O18" s="33"/>
+      <c r="O18" s="34"/>
       <c r="Q18" s="6">
         <v>150</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="33"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14">
         <v>80</v>
@@ -2032,7 +2032,7 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -2045,7 +2045,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="33"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14">
         <v>90</v>
@@ -2066,7 +2066,7 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="33"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14">
         <v>40</v>
@@ -2288,10 +2288,17 @@
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="AF25" s="18"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
@@ -2336,7 +2343,7 @@
       </c>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="31"/>
+      <c r="B27" s="33"/>
       <c r="I27" s="1">
         <v>135</v>
       </c>
@@ -2375,7 +2382,7 @@
       </c>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="31"/>
+      <c r="B28" s="33"/>
       <c r="I28" s="1">
         <v>135</v>
       </c>
@@ -2414,7 +2421,7 @@
       </c>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="31"/>
+      <c r="B29" s="33"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -2435,7 +2442,7 @@
       </c>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="31"/>
+      <c r="B30" s="33"/>
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -2459,7 +2466,7 @@
       <c r="AF30" s="18"/>
     </row>
     <row r="31" spans="2:36">
-      <c r="B31" s="31"/>
+      <c r="B31" s="33"/>
       <c r="I31" s="1">
         <v>115</v>
       </c>
@@ -2480,7 +2487,7 @@
       <c r="AF31" s="18"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="31"/>
+      <c r="B32" s="33"/>
       <c r="I32" s="1">
         <v>115</v>
       </c>
@@ -2501,7 +2508,7 @@
       <c r="AF32" s="18"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="31"/>
+      <c r="B33" s="33"/>
       <c r="C33" t="s">
         <v>56</v>
       </c>
@@ -2516,7 +2523,7 @@
       <c r="AF33" s="18"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="31"/>
+      <c r="B34" s="33"/>
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -2540,7 +2547,7 @@
       <c r="AF34" s="18"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="31"/>
+      <c r="B35" s="33"/>
       <c r="I35" s="1">
         <v>150</v>
       </c>
@@ -2561,7 +2568,7 @@
       <c r="AF35" s="18"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="31"/>
+      <c r="B36" s="33"/>
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -2585,7 +2592,7 @@
       <c r="AF36" s="18"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="31"/>
+      <c r="B37" s="33"/>
       <c r="I37" s="1">
         <v>25</v>
       </c>
@@ -2606,7 +2613,7 @@
       <c r="AF37" s="18"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="31"/>
+      <c r="B38" s="33"/>
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -2630,7 +2637,7 @@
       <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="31"/>
+      <c r="B39" s="33"/>
       <c r="C39" t="s">
         <v>50</v>
       </c>
@@ -2654,7 +2661,7 @@
       <c r="AF39" s="18"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="31"/>
+      <c r="B40" s="33"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2675,7 +2682,7 @@
       <c r="AF40" s="18"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="31"/>
+      <c r="B41" s="33"/>
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -2708,7 +2715,7 @@
       <c r="AF41" s="18"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
@@ -2729,7 +2736,7 @@
       <c r="AF42" s="18"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2772,7 +2779,7 @@
       <c r="AF43" s="18"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="31"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="13" t="s">
         <v>36</v>
       </c>
@@ -2834,7 +2841,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="31"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2872,7 +2879,7 @@
       <c r="AB45" s="9"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="31"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="13" t="s">
         <v>37</v>
       </c>
@@ -2921,7 +2928,7 @@
       <c r="AB46" s="9"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="31"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -3175,6 +3182,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -3183,18 +3202,6 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -3210,6 +3217,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AJ4</xm:f>
+              <xm:sqref>D4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="5" tint="-0.249977111117893"/>
           <x14:colorNegative theme="6"/>
@@ -3226,22 +3249,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AJ4</xm:f>
-              <xm:sqref>D4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3255,7 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3480,7 +3487,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16780" windowHeight="20480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -500,23 +500,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
@@ -1472,112 +1472,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="30">
+      <c r="E3" s="35">
         <v>41645</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35">
         <v>41647</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35">
         <v>41649</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35">
         <v>41650</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30">
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35">
         <v>41660</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30">
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35">
         <v>41663</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30">
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35">
         <v>41671</v>
       </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30">
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35">
         <v>41663</v>
       </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="E4" s="31">
+      <c r="E4" s="32">
         <f>SUM(H6:H21)</f>
         <v>9295</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32">
         <f>SUM(L26:L42)</f>
         <v>13880</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32">
         <f>SUM(P43:P47)</f>
         <v>9965</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32">
         <f>SUM(T6:T24)</f>
         <v>18430</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31">
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32">
         <f>SUM(X44:X51)</f>
         <v>23730</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31">
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32">
         <f>SUM(AB23:AB53)</f>
         <v>17170</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31">
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32">
         <f>SUM(AF23:AF53)</f>
         <v>5424</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31">
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32">
         <f>SUM(AJ23:AJ53)</f>
         <v>250</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
     </row>
     <row r="5" spans="2:36" ht="35" customHeight="1">
       <c r="B5" s="16"/>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -1704,7 +1704,7 @@
         <f>E6*F6*G6</f>
         <v>3375</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="33"/>
       <c r="Q6" s="6">
         <v>135</v>
       </c>
@@ -1732,12 +1732,12 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="33"/>
       <c r="Q7" s="6">
         <v>185</v>
       </c>
@@ -1753,12 +1753,12 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="33"/>
       <c r="Q8" s="6">
         <v>185</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="34"/>
+      <c r="B9" s="33"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -1791,14 +1791,14 @@
         <f t="shared" ref="H9:H21" si="1">E9*F9*G9</f>
         <v>360</v>
       </c>
-      <c r="O9" s="34"/>
+      <c r="O9" s="33"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="E10" s="1">
         <v>70</v>
       </c>
@@ -1812,14 +1812,14 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="33"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1836,7 @@
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="O11" s="34"/>
+      <c r="O11" s="33"/>
       <c r="Q11" s="6">
         <v>95</v>
       </c>
@@ -1852,12 +1852,12 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="34"/>
+      <c r="B12" s="33"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="33"/>
       <c r="Q12" s="6">
         <v>135</v>
       </c>
@@ -1873,19 +1873,19 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="33"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="33"/>
       <c r="Q14" s="6">
         <v>20</v>
       </c>
@@ -1909,12 +1909,12 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="34"/>
+      <c r="B15" s="33"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="O15" s="34"/>
+      <c r="O15" s="33"/>
       <c r="Q15" s="6">
         <v>30</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="O16" s="34"/>
+      <c r="O16" s="33"/>
       <c r="Q16" s="6">
         <v>105</v>
       </c>
@@ -1954,12 +1954,12 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="O17" s="34"/>
+      <c r="O17" s="33"/>
       <c r="Q17" s="6">
         <v>120</v>
       </c>
@@ -1975,12 +1975,12 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="O18" s="34"/>
+      <c r="O18" s="33"/>
       <c r="Q18" s="6">
         <v>150</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="34"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14">
         <v>80</v>
@@ -2032,7 +2032,7 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -2045,7 +2045,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14">
         <v>90</v>
@@ -2066,7 +2066,7 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="34"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14">
         <v>40</v>
@@ -2298,7 +2298,7 @@
       <c r="AJ25" s="16"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="33"/>
+      <c r="B27" s="31"/>
       <c r="I27" s="1">
         <v>135</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="33"/>
+      <c r="B28" s="31"/>
       <c r="I28" s="1">
         <v>135</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="33"/>
+      <c r="B29" s="31"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="33"/>
+      <c r="B30" s="31"/>
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="AF30" s="18"/>
     </row>
     <row r="31" spans="2:36">
-      <c r="B31" s="33"/>
+      <c r="B31" s="31"/>
       <c r="I31" s="1">
         <v>115</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="AF31" s="18"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="33"/>
+      <c r="B32" s="31"/>
       <c r="I32" s="1">
         <v>115</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="AF32" s="18"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="33"/>
+      <c r="B33" s="31"/>
       <c r="C33" t="s">
         <v>56</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="AF33" s="18"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="33"/>
+      <c r="B34" s="31"/>
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="AF34" s="18"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="33"/>
+      <c r="B35" s="31"/>
       <c r="I35" s="1">
         <v>150</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="AF35" s="18"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="33"/>
+      <c r="B36" s="31"/>
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="AF36" s="18"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="33"/>
+      <c r="B37" s="31"/>
       <c r="I37" s="1">
         <v>25</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="AF37" s="18"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="33"/>
+      <c r="B38" s="31"/>
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="33"/>
+      <c r="B39" s="31"/>
       <c r="C39" t="s">
         <v>50</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="AF39" s="18"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="33"/>
+      <c r="B40" s="31"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2682,7 +2682,7 @@
       <c r="AF40" s="18"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="33"/>
+      <c r="B41" s="31"/>
       <c r="C41" t="s">
         <v>32</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="AF41" s="18"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="35"/>
+      <c r="B42" s="34"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="AF42" s="18"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2779,7 +2779,7 @@
       <c r="AF43" s="18"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="33"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="13" t="s">
         <v>36</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="33"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2879,7 +2879,7 @@
       <c r="AB45" s="9"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="33"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="13" t="s">
         <v>37</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="AB46" s="9"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="33"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -3182,18 +3182,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -3202,6 +3190,18 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -3217,6 +3217,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="5" tint="-0.249977111117893"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="6" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="6" tint="-0.249977111117893"/>
+          <x14:colorLow theme="6" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AF4</xm:f>
+              <xm:sqref>D5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -3233,22 +3249,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="5" tint="-0.249977111117893"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="6" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="6" tint="-0.249977111117893"/>
-          <x14:colorLow theme="6" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AF4</xm:f>
-              <xm:sqref>D5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3262,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16780" windowHeight="20480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Weights" sheetId="2" r:id="rId2"/>
-    <sheet name="Kettlebell" sheetId="5" r:id="rId3"/>
-    <sheet name="Planner" sheetId="3" r:id="rId4"/>
+    <sheet name="Kettlebell" sheetId="5" r:id="rId2"/>
+    <sheet name="Cardio" sheetId="6" r:id="rId3"/>
+    <sheet name="Weights" sheetId="2" r:id="rId4"/>
     <sheet name="Mat" sheetId="4" r:id="rId5"/>
+    <sheet name="Planner" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
-  <si>
-    <t>Workout Bitch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>M</t>
   </si>
@@ -227,6 +225,63 @@
   </si>
   <si>
     <t>CURL</t>
+  </si>
+  <si>
+    <t>Lifts.xlsx</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Map Data?</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>MIL PRESS</t>
+  </si>
+  <si>
+    <t>FLR PRESS</t>
+  </si>
+  <si>
+    <t>SKULLCRUSHER</t>
+  </si>
+  <si>
+    <t>DEADLIFT</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Back on the wagon, great pump</t>
+  </si>
+  <si>
+    <t>Kettlebells, Bike</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Wegmans errand</t>
   </si>
 </sst>
 </file>
@@ -354,7 +409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -422,8 +477,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,10 +559,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,17 +586,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,8 +601,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -562,6 +649,11 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -595,6 +687,11 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -937,66 +1034,66 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="N2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="O3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="28">
+        <v>9</v>
+      </c>
+      <c r="B4" s="31">
         <v>41579</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1018,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1047,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1076,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1126,37 +1223,37 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="28">
+      <c r="B12" s="31">
         <v>41609</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1228,7 +1325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:11">
       <c r="B17" s="1">
         <v>22</v>
       </c>
@@ -1251,7 +1348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:11">
       <c r="B18" s="1">
         <v>29</v>
       </c>
@@ -1266,41 +1363,41 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="28">
+    <row r="20" spans="2:11">
+      <c r="B20" s="31">
         <v>41640</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1317,30 +1414,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:11">
       <c r="B23" s="1">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1">
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
         <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:11">
       <c r="B24" s="1">
         <v>12</v>
       </c>
@@ -1363,7 +1460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:11">
       <c r="B25" s="1">
         <v>19</v>
       </c>
@@ -1386,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:11">
       <c r="B26" s="1">
         <v>26</v>
       </c>
@@ -1405,13 +1502,165 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="31">
+        <v>41821</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>2</v>
+      </c>
+      <c r="F30" s="15">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15">
+        <v>4</v>
+      </c>
+      <c r="H30" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="28">
+        <v>6</v>
+      </c>
+      <c r="C31" s="42">
+        <v>7</v>
+      </c>
+      <c r="D31" s="15">
+        <v>8</v>
+      </c>
+      <c r="E31" s="42">
+        <v>9</v>
+      </c>
+      <c r="F31" s="15">
+        <v>10</v>
+      </c>
+      <c r="G31" s="43">
+        <v>11</v>
+      </c>
+      <c r="H31" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="28">
+        <v>13</v>
+      </c>
+      <c r="C32" s="15">
+        <v>14</v>
+      </c>
+      <c r="D32" s="15">
+        <v>15</v>
+      </c>
+      <c r="E32" s="15">
+        <v>16</v>
+      </c>
+      <c r="F32" s="15">
+        <v>17</v>
+      </c>
+      <c r="G32" s="15">
+        <v>18</v>
+      </c>
+      <c r="H32" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="28">
+        <v>20</v>
+      </c>
+      <c r="C33" s="28">
+        <v>21</v>
+      </c>
+      <c r="D33" s="28">
+        <v>22</v>
+      </c>
+      <c r="E33" s="28">
+        <v>23</v>
+      </c>
+      <c r="F33" s="28">
+        <v>24</v>
+      </c>
+      <c r="G33" s="28">
+        <v>25</v>
+      </c>
+      <c r="H33" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="28">
+        <v>27</v>
+      </c>
+      <c r="C34" s="28">
+        <v>28</v>
+      </c>
+      <c r="D34" s="28">
+        <v>29</v>
+      </c>
+      <c r="E34" s="28">
+        <v>30</v>
+      </c>
+      <c r="F34" s="28">
+        <v>31</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1422,13 +1671,749 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="39">
+        <v>41676</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39">
+        <v>41825</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39">
+        <v>41827</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="40">
+        <f>SUM(E4:E14)</f>
+        <v>4270</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
+        <f>SUM(I4:I14)</f>
+        <v>11480</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
+        <f>SUM(M4:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="24">
+        <v>35</v>
+      </c>
+      <c r="C4" s="24">
+        <v>12</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <f>B4*C4*D4</f>
+        <v>420</v>
+      </c>
+      <c r="F4" s="26">
+        <v>35</v>
+      </c>
+      <c r="G4" s="26">
+        <v>10</v>
+      </c>
+      <c r="H4" s="26">
+        <v>3</v>
+      </c>
+      <c r="I4" s="28">
+        <f>F4*G4*H4</f>
+        <v>1050</v>
+      </c>
+      <c r="J4" s="28">
+        <v>35</v>
+      </c>
+      <c r="K4" s="28">
+        <v>10</v>
+      </c>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <f>J4*K4*L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <f>B5*C5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>35</v>
+      </c>
+      <c r="G5" s="28">
+        <v>10</v>
+      </c>
+      <c r="H5" s="28">
+        <v>3</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I14" si="0">F5*G5*H5</f>
+        <v>1050</v>
+      </c>
+      <c r="J5" s="28">
+        <v>35</v>
+      </c>
+      <c r="K5" s="28">
+        <v>10</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <f t="shared" ref="M5:M14" si="1">J5*K5*L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="24">
+        <v>35</v>
+      </c>
+      <c r="C6" s="24">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24">
+        <f>B6*C6*D6</f>
+        <v>1400</v>
+      </c>
+      <c r="F6" s="28">
+        <v>35</v>
+      </c>
+      <c r="G6" s="28">
+        <v>10</v>
+      </c>
+      <c r="H6" s="28">
+        <v>3</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="J6" s="28">
+        <v>35</v>
+      </c>
+      <c r="K6" s="28">
+        <v>10</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="24">
+        <v>35</v>
+      </c>
+      <c r="C7" s="24">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" ref="E7:E14" si="2">B7*C7*D7</f>
+        <v>700</v>
+      </c>
+      <c r="F7" s="28">
+        <v>35</v>
+      </c>
+      <c r="G7" s="28">
+        <v>12</v>
+      </c>
+      <c r="H7" s="28">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="J7" s="28">
+        <v>35</v>
+      </c>
+      <c r="K7" s="28">
+        <v>12</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="24">
+        <v>35</v>
+      </c>
+      <c r="C8" s="24">
+        <v>10</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="F8" s="28">
+        <v>35</v>
+      </c>
+      <c r="G8" s="28">
+        <v>15</v>
+      </c>
+      <c r="H8" s="28">
+        <v>2</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="J8" s="28">
+        <v>35</v>
+      </c>
+      <c r="K8" s="28">
+        <v>15</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="24">
+        <v>35</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="F9" s="28">
+        <v>35</v>
+      </c>
+      <c r="G9" s="28">
+        <v>12</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="J9" s="28">
+        <v>35</v>
+      </c>
+      <c r="K9" s="28">
+        <v>12</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>35</v>
+      </c>
+      <c r="G10" s="28">
+        <v>20</v>
+      </c>
+      <c r="H10" s="28">
+        <v>3</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="J10" s="28">
+        <v>35</v>
+      </c>
+      <c r="K10" s="28">
+        <v>20</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>35</v>
+      </c>
+      <c r="G11" s="28">
+        <v>8</v>
+      </c>
+      <c r="H11" s="28">
+        <v>3</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="J11" s="28">
+        <v>35</v>
+      </c>
+      <c r="K11" s="28">
+        <v>8</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="24">
+        <v>35</v>
+      </c>
+      <c r="C12" s="24">
+        <v>10</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="F12" s="28">
+        <v>35</v>
+      </c>
+      <c r="G12" s="28">
+        <v>10</v>
+      </c>
+      <c r="H12" s="28">
+        <v>2</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="J12" s="28">
+        <v>35</v>
+      </c>
+      <c r="K12" s="28">
+        <v>10</v>
+      </c>
+      <c r="L12" s="28">
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>35</v>
+      </c>
+      <c r="G13" s="28">
+        <v>12</v>
+      </c>
+      <c r="H13" s="28">
+        <v>2</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="J13" s="28">
+        <v>35</v>
+      </c>
+      <c r="K13" s="28">
+        <v>12</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="24">
+        <v>35</v>
+      </c>
+      <c r="C14" s="24">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="F14" s="28">
+        <v>35</v>
+      </c>
+      <c r="G14" s="28">
+        <v>10</v>
+      </c>
+      <c r="H14" s="28">
+        <v>2</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="J14" s="28">
+        <v>35</v>
+      </c>
+      <c r="K14" s="28">
+        <v>10</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F15:I15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="29">
+        <v>41825</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="28">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>33</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="28">
+        <v>314</v>
+      </c>
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AJ53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1472,224 +2457,224 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>41645</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33">
         <v>41647</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33">
         <v>41649</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35">
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33">
         <v>41650</v>
       </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35">
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33">
         <v>41660</v>
       </c>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35">
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33">
         <v>41663</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33">
         <v>41671</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35">
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33">
         <v>41663</v>
       </c>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="E4" s="32">
+      <c r="E4" s="34">
         <f>SUM(H6:H21)</f>
         <v>9295</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34">
         <f>SUM(L26:L42)</f>
         <v>13880</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34">
         <f>SUM(P43:P47)</f>
         <v>9965</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34">
         <f>SUM(T6:T24)</f>
         <v>18430</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32">
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34">
         <f>SUM(X44:X51)</f>
         <v>23730</v>
       </c>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32">
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34">
         <f>SUM(AB23:AB53)</f>
         <v>17170</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32">
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34">
         <f>SUM(AF23:AF53)</f>
         <v>5424</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34">
         <f>SUM(AJ23:AJ53)</f>
         <v>250</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
     </row>
     <row r="5" spans="2:36" ht="35" customHeight="1">
       <c r="B5" s="16"/>
       <c r="C5" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="L5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="M5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="O5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="S5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="T5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="U5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="W5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="X5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="Y5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="AC5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="AG5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AI5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="21" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="33" t="s">
-        <v>33</v>
+      <c r="B6" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>135</v>
@@ -1704,7 +2689,7 @@
         <f>E6*F6*G6</f>
         <v>3375</v>
       </c>
-      <c r="O6" s="33"/>
+      <c r="O6" s="37"/>
       <c r="Q6" s="6">
         <v>135</v>
       </c>
@@ -1732,12 +2717,12 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="O7" s="33"/>
+      <c r="O7" s="37"/>
       <c r="Q7" s="6">
         <v>185</v>
       </c>
@@ -1753,12 +2738,12 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8" s="33"/>
+      <c r="B8" s="37"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="O8" s="33"/>
+      <c r="O8" s="37"/>
       <c r="Q8" s="6">
         <v>185</v>
       </c>
@@ -1774,9 +2759,9 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="33"/>
+      <c r="B9" s="37"/>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>45</v>
@@ -1791,14 +2776,14 @@
         <f t="shared" ref="H9:H21" si="1">E9*F9*G9</f>
         <v>360</v>
       </c>
-      <c r="O9" s="33"/>
+      <c r="O9" s="37"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="33"/>
+      <c r="B10" s="37"/>
       <c r="E10" s="1">
         <v>70</v>
       </c>
@@ -1812,16 +2797,16 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="37"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="33"/>
+      <c r="B11" s="37"/>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>95</v>
@@ -1836,7 +2821,7 @@
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="O11" s="33"/>
+      <c r="O11" s="37"/>
       <c r="Q11" s="6">
         <v>95</v>
       </c>
@@ -1852,12 +2837,12 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="O12" s="33"/>
+      <c r="O12" s="37"/>
       <c r="Q12" s="6">
         <v>135</v>
       </c>
@@ -1873,27 +2858,27 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="33"/>
+      <c r="B13" s="37"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="O13" s="33"/>
+      <c r="O13" s="37"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="33"/>
+      <c r="B14" s="37"/>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="O14" s="33"/>
+      <c r="O14" s="37"/>
       <c r="Q14" s="6">
         <v>20</v>
       </c>
@@ -1909,12 +2894,12 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="33"/>
+      <c r="B15" s="37"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="O15" s="33"/>
+      <c r="O15" s="37"/>
       <c r="Q15" s="6">
         <v>30</v>
       </c>
@@ -1930,15 +2915,15 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="33"/>
+      <c r="B16" s="37"/>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="O16" s="33"/>
+      <c r="O16" s="37"/>
       <c r="Q16" s="6">
         <v>105</v>
       </c>
@@ -1954,12 +2939,12 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="O17" s="33"/>
+      <c r="O17" s="37"/>
       <c r="Q17" s="6">
         <v>120</v>
       </c>
@@ -1975,12 +2960,12 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="33"/>
+      <c r="B18" s="37"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="O18" s="33"/>
+      <c r="O18" s="37"/>
       <c r="Q18" s="6">
         <v>150</v>
       </c>
@@ -1996,9 +2981,9 @@
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="33"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -2011,7 +2996,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="33"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="14">
         <v>80</v>
@@ -2032,7 +3017,7 @@
       <c r="X19" s="13"/>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="33"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -2045,7 +3030,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="33"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="14">
         <v>90</v>
@@ -2066,9 +3051,9 @@
       <c r="X20" s="13"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="33"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14">
@@ -2090,7 +3075,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="33"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14">
         <v>40</v>
@@ -2113,7 +3098,7 @@
     <row r="22" spans="2:36">
       <c r="B22" s="10"/>
       <c r="C22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -2149,7 +3134,7 @@
     <row r="23" spans="2:36">
       <c r="B23" s="10"/>
       <c r="C23" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="14"/>
@@ -2298,11 +3283,11 @@
       <c r="AJ25" s="16"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="30" t="s">
-        <v>34</v>
+      <c r="B26" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1"/>
       <c r="I26" s="1">
@@ -2343,7 +3328,7 @@
       </c>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="31"/>
+      <c r="B27" s="36"/>
       <c r="I27" s="1">
         <v>135</v>
       </c>
@@ -2382,7 +3367,7 @@
       </c>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="31"/>
+      <c r="B28" s="36"/>
       <c r="I28" s="1">
         <v>135</v>
       </c>
@@ -2421,7 +3406,7 @@
       </c>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="31"/>
+      <c r="B29" s="36"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -2442,9 +3427,9 @@
       </c>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="31"/>
+      <c r="B30" s="36"/>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1">
         <v>90</v>
@@ -2466,7 +3451,7 @@
       <c r="AF30" s="18"/>
     </row>
     <row r="31" spans="2:36">
-      <c r="B31" s="31"/>
+      <c r="B31" s="36"/>
       <c r="I31" s="1">
         <v>115</v>
       </c>
@@ -2487,7 +3472,7 @@
       <c r="AF31" s="18"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="31"/>
+      <c r="B32" s="36"/>
       <c r="I32" s="1">
         <v>115</v>
       </c>
@@ -2508,9 +3493,9 @@
       <c r="AF32" s="18"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="31"/>
+      <c r="B33" s="36"/>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -2523,9 +3508,9 @@
       <c r="AF33" s="18"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="31"/>
+      <c r="B34" s="36"/>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="1">
         <v>110</v>
@@ -2547,7 +3532,7 @@
       <c r="AF34" s="18"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="31"/>
+      <c r="B35" s="36"/>
       <c r="I35" s="1">
         <v>150</v>
       </c>
@@ -2568,9 +3553,9 @@
       <c r="AF35" s="18"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="31"/>
+      <c r="B36" s="36"/>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" s="1">
         <v>25</v>
@@ -2592,7 +3577,7 @@
       <c r="AF36" s="18"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="31"/>
+      <c r="B37" s="36"/>
       <c r="I37" s="1">
         <v>25</v>
       </c>
@@ -2613,9 +3598,9 @@
       <c r="AF37" s="18"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="31"/>
+      <c r="B38" s="36"/>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" s="1">
         <v>35</v>
@@ -2637,9 +3622,9 @@
       <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="31"/>
+      <c r="B39" s="36"/>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2661,7 +3646,7 @@
       <c r="AF39" s="18"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="31"/>
+      <c r="B40" s="36"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2682,9 +3667,9 @@
       <c r="AF40" s="18"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="31"/>
+      <c r="B41" s="36"/>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41" s="1">
         <v>100</v>
@@ -2715,7 +3700,7 @@
       <c r="AF41" s="18"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="34"/>
+      <c r="B42" s="38"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
@@ -2736,11 +3721,11 @@
       <c r="AF42" s="18"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="30" t="s">
-        <v>38</v>
+      <c r="B43" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2779,9 +3764,9 @@
       <c r="AF43" s="18"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="31"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -2841,7 +3826,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="31"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2879,9 +3864,9 @@
       <c r="AB45" s="9"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="31"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -2928,7 +3913,7 @@
       <c r="AB46" s="9"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="31"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -3015,7 +4000,7 @@
     <row r="49" spans="2:28">
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -3055,7 +4040,7 @@
     <row r="50" spans="2:28">
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -3161,10 +4146,10 @@
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y53" s="9">
         <v>65</v>
@@ -3182,6 +4167,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -3190,18 +4187,6 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -3217,6 +4202,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AJ4</xm:f>
+              <xm:sqref>D4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="5" tint="-0.249977111117893"/>
           <x14:colorNegative theme="6"/>
@@ -3233,668 +4234,8 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AJ4</xm:f>
-              <xm:sqref>D4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="36">
-        <v>41676</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36">
-        <v>41676</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="37">
-        <f>SUM(E4:E8)</f>
-        <v>3570</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37">
-        <f>SUM(I4:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="24">
-        <v>35</v>
-      </c>
-      <c r="C4" s="24">
-        <v>20</v>
-      </c>
-      <c r="D4" s="24">
-        <v>2</v>
-      </c>
-      <c r="E4" s="24">
-        <f>B4*C4*D4</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="24">
-        <v>35</v>
-      </c>
-      <c r="C5" s="24">
-        <v>10</v>
-      </c>
-      <c r="D5" s="24">
-        <v>2</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" ref="E5:E10" si="0">B5*C5*D5</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="24">
-        <v>35</v>
-      </c>
-      <c r="C6" s="24">
-        <v>10</v>
-      </c>
-      <c r="D6" s="24">
-        <v>2</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="24">
-        <v>35</v>
-      </c>
-      <c r="C7" s="24">
-        <v>12</v>
-      </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="F7" s="26">
-        <v>35</v>
-      </c>
-      <c r="G7" s="26">
-        <v>20</v>
-      </c>
-      <c r="H7" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="24">
-        <v>35</v>
-      </c>
-      <c r="C8" s="24">
-        <v>10</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="24">
-        <v>35</v>
-      </c>
-      <c r="C9" s="24">
-        <v>10</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="24">
-        <v>35</v>
-      </c>
-      <c r="C10" s="24">
-        <v>10</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E4:E10 F7:H7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="13" thickBot="1"/>
-    <row r="2" spans="2:8" ht="14" thickTop="1" thickBot="1">
-      <c r="B2" s="23">
-        <v>41666</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="2:8" ht="13" thickTop="1">
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
-        <v>135</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9">
-        <v>135</v>
-      </c>
-      <c r="G4" s="9">
-        <v>8</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="C5" s="9">
-        <v>185</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>185</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="C6" s="9">
-        <v>185</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>185</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9">
-        <v>95</v>
-      </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>135</v>
-      </c>
-      <c r="G9" s="9">
-        <v>10</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="C10" s="9">
-        <v>135</v>
-      </c>
-      <c r="D10" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9">
-        <v>155</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9">
-        <v>12</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="C13" s="9">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>30</v>
-      </c>
-      <c r="G13" s="9">
-        <v>8</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="9">
-        <v>105</v>
-      </c>
-      <c r="D14" s="9">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>105</v>
-      </c>
-      <c r="G14" s="9">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="C15" s="9">
-        <v>120</v>
-      </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>120</v>
-      </c>
-      <c r="G15" s="9">
-        <v>12</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="C16" s="9">
-        <v>150</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>150</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="9">
-        <v>80</v>
-      </c>
-      <c r="D17" s="9">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>80</v>
-      </c>
-      <c r="G17" s="9">
-        <v>8</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="C18" s="9">
-        <v>90</v>
-      </c>
-      <c r="D18" s="9">
-        <v>6</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9">
-        <v>90</v>
-      </c>
-      <c r="G18" s="9">
-        <v>6</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9">
-        <v>40</v>
-      </c>
-      <c r="D19" s="9">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9">
-        <v>40</v>
-      </c>
-      <c r="G19" s="9">
-        <v>10</v>
-      </c>
-      <c r="H19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="9">
-        <v>25</v>
-      </c>
-      <c r="D21" s="9">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9">
-        <v>3</v>
-      </c>
-      <c r="F21" s="9">
-        <v>25</v>
-      </c>
-      <c r="G21" s="9">
-        <v>8</v>
-      </c>
-      <c r="H21" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
-  </colBreaks>
-  <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -3919,4 +4260,411 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="13" thickBot="1"/>
+    <row r="2" spans="2:8" ht="14" thickTop="1" thickBot="1">
+      <c r="B2" s="23">
+        <v>41666</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="2:8" ht="13" thickTop="1">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9">
+        <v>135</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>135</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" s="9">
+        <v>185</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>185</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" s="9">
+        <v>185</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>185</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>95</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>135</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10" s="9">
+        <v>135</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <v>155</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="9">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>30</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9">
+        <v>105</v>
+      </c>
+      <c r="D14" s="9">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>105</v>
+      </c>
+      <c r="G14" s="9">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="9">
+        <v>120</v>
+      </c>
+      <c r="D15" s="9">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>120</v>
+      </c>
+      <c r="G15" s="9">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" s="9">
+        <v>150</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>150</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>80</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="9">
+        <v>90</v>
+      </c>
+      <c r="D18" s="9">
+        <v>6</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9">
+        <v>25</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>25</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
   <si>
     <t>M</t>
   </si>
@@ -486,7 +486,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,8 +600,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,6 +724,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,19 +763,13 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,14 +778,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -837,6 +848,10 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -893,6 +908,10 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1259,15 +1278,15 @@
       <c r="A4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <v>41579</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="O4" s="26" t="s">
         <v>13</v>
       </c>
@@ -1431,15 +1450,15 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <v>41609</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="28" t="s">
@@ -1572,15 +1591,15 @@
       <c r="H18" s="27"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="44">
+      <c r="B20" s="45">
         <v>41640</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="28" t="s">
@@ -1711,15 +1730,15 @@
       <c r="H26" s="27"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="44">
+      <c r="B28" s="45">
         <v>41821</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="28" t="s">
@@ -1878,13 +1897,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ17"/>
+  <dimension ref="A1:BY17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="BF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP5" sqref="BP5"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1958,236 +1977,270 @@
     <col min="67" max="67" width="5" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="4.5" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="40" customHeight="1">
-      <c r="A1" s="52"/>
-      <c r="B1" s="54">
+    <row r="1" spans="1:77" ht="40" customHeight="1">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55">
         <v>41676</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="53">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="54">
         <v>41745</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="53">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="54">
         <v>41762</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="53">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="54">
         <v>41763</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="53">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="54">
         <v>41766</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="53">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="54">
         <v>41767</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="53">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="54">
         <v>41798</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="53">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="54">
         <v>41799</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="53">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="54">
         <v>41825</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="46">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="47">
         <v>41829</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="46">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="47">
         <v>41831</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="46">
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="47">
         <v>41833</v>
       </c>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="46">
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="47">
         <v>41837</v>
       </c>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="46">
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="47">
         <v>41841</v>
       </c>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="46">
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="47">
         <v>41846</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="46">
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="47">
         <v>41858</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="46">
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="47">
         <v>41859</v>
       </c>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="48"/>
-    </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="52"/>
-      <c r="B2" s="55">
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="47">
+        <v>41871</v>
+      </c>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="47">
+        <v>41874</v>
+      </c>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="49"/>
+    </row>
+    <row r="2" spans="1:77">
+      <c r="A2" s="53"/>
+      <c r="B2" s="56">
         <f>SUM(E4:E16)</f>
         <v>4270</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="49">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="50">
         <f>SUM(I4:I16)</f>
         <v>4620</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="50">
         <f>SUM(M4:M16)</f>
         <v>2380</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="49">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="50">
         <f>SUM(Q4:Q16)</f>
         <v>10255</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="49">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="50">
         <f>SUM(U4:U16)</f>
         <v>12530</v>
       </c>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="49">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="50">
         <f>SUM(Y4:Y16)</f>
         <v>5845</v>
       </c>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="49">
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="50">
         <f>SUM(AC4:AC16)</f>
         <v>3360</v>
       </c>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="49">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="50">
         <f>SUM(AG4:AG16)</f>
         <v>7945</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="49">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="50">
         <f>SUM(AK4:AK16)</f>
         <v>11480</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="49">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="50">
         <f>SUM(AO4:AO16)</f>
         <v>4900</v>
       </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="49">
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="50">
         <f>SUM(AS4:AS16)</f>
         <v>1120</v>
       </c>
       <c r="AQ2" s="57"/>
       <c r="AR2" s="57"/>
       <c r="AS2" s="58"/>
-      <c r="AT2" s="49">
+      <c r="AT2" s="50">
         <f>SUM(AW4:AW16)</f>
         <v>8925</v>
       </c>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="49">
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="50">
         <f>SUM(BA4:BA16)</f>
         <v>13195</v>
       </c>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="49">
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="50">
         <f>SUM(BE4:BE16)</f>
         <v>4235</v>
       </c>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="49">
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="50">
         <f>SUM(BI4:BI16)</f>
         <v>6405</v>
       </c>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="49">
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="50">
         <f>SUM(BM4:BM16)</f>
         <v>8680</v>
       </c>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="49">
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="50">
         <f>SUM(BQ4:BQ16)</f>
         <v>4480</v>
       </c>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="51"/>
-    </row>
-    <row r="3" spans="1:69">
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="50">
+        <f>SUM(BU4:BU16)</f>
+        <v>6125</v>
+      </c>
+      <c r="BS2" s="51"/>
+      <c r="BT2" s="51"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="50">
+        <f>SUM(BY4:BY16)</f>
+        <v>5845</v>
+      </c>
+      <c r="BW2" s="51"/>
+      <c r="BX2" s="51"/>
+      <c r="BY2" s="52"/>
+    </row>
+    <row r="3" spans="1:77">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>60</v>
@@ -2393,8 +2446,32 @@
       <c r="BQ3" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:69">
+      <c r="BR3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY3" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77">
       <c r="A4" s="21" t="s">
         <v>58</v>
       </c>
@@ -2606,21 +2683,47 @@
         <f>BJ4*BK4*BL4</f>
         <v>700</v>
       </c>
-      <c r="BN4" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO4" s="42">
-        <v>10</v>
-      </c>
-      <c r="BP4" s="42">
+      <c r="BN4" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO4" s="44">
+        <v>10</v>
+      </c>
+      <c r="BP4" s="44">
         <v>1</v>
       </c>
-      <c r="BQ4" s="42">
+      <c r="BQ4" s="44">
         <f>BN4*BO4*BP4</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:69">
+      <c r="BR4" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS4" s="44">
+        <v>10</v>
+      </c>
+      <c r="BT4" s="44">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="44">
+        <f>BR4*BS4*BT4</f>
+        <v>700</v>
+      </c>
+      <c r="BV4" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW4" s="42">
+        <v>15</v>
+      </c>
+      <c r="BX4" s="42">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="42">
+        <f>BV4*BW4*BX4</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:77">
       <c r="A5" s="21" t="s">
         <v>72</v>
       </c>
@@ -2832,21 +2935,47 @@
         <f t="shared" ref="BM5:BM16" si="14">BJ5*BK5*BL5</f>
         <v>1260</v>
       </c>
-      <c r="BN5" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO5" s="42">
+      <c r="BN5" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO5" s="44">
         <v>12</v>
       </c>
-      <c r="BP5" s="42">
-        <v>2</v>
-      </c>
-      <c r="BQ5" s="42">
+      <c r="BP5" s="44">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="44">
         <f t="shared" ref="BQ5:BQ16" si="15">BN5*BO5*BP5</f>
         <v>840</v>
       </c>
-    </row>
-    <row r="6" spans="1:69">
+      <c r="BR5" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS5" s="44">
+        <v>12</v>
+      </c>
+      <c r="BT5" s="44">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="44">
+        <f t="shared" ref="BU5:BU16" si="16">BR5*BS5*BT5</f>
+        <v>1260</v>
+      </c>
+      <c r="BV5" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW5" s="42">
+        <v>15</v>
+      </c>
+      <c r="BX5" s="42">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="42">
+        <f t="shared" ref="BY5:BY16" si="17">BV5*BW5*BX5</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77">
       <c r="A6" s="21" t="s">
         <v>53</v>
       </c>
@@ -3058,21 +3187,47 @@
         <f t="shared" si="14"/>
         <v>350</v>
       </c>
-      <c r="BN6" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO6" s="42">
-        <v>10</v>
-      </c>
-      <c r="BP6" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="42">
+      <c r="BN6" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO6" s="44">
+        <v>10</v>
+      </c>
+      <c r="BP6" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:69">
+      <c r="BR6" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS6" s="44">
+        <v>10</v>
+      </c>
+      <c r="BT6" s="44">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BV6" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW6" s="42">
+        <v>10</v>
+      </c>
+      <c r="BX6" s="42">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77">
       <c r="A7" s="21" t="s">
         <v>56</v>
       </c>
@@ -3086,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="24">
-        <f t="shared" ref="E7:E16" si="16">B7*C7*D7</f>
+        <f t="shared" ref="E7:E16" si="18">B7*C7*D7</f>
         <v>700</v>
       </c>
       <c r="F7" s="40">
@@ -3284,21 +3439,47 @@
         <f t="shared" si="14"/>
         <v>840</v>
       </c>
-      <c r="BN7" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO7" s="42">
+      <c r="BN7" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO7" s="44">
         <v>15</v>
       </c>
-      <c r="BP7" s="42">
+      <c r="BP7" s="44">
         <v>1</v>
       </c>
-      <c r="BQ7" s="42">
+      <c r="BQ7" s="44">
         <f t="shared" si="15"/>
         <v>525</v>
       </c>
-    </row>
-    <row r="8" spans="1:69">
+      <c r="BR7" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS7" s="44">
+        <v>15</v>
+      </c>
+      <c r="BT7" s="44">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="44">
+        <f t="shared" si="16"/>
+        <v>525</v>
+      </c>
+      <c r="BV7" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW7" s="42">
+        <v>15</v>
+      </c>
+      <c r="BX7" s="42">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="42">
+        <f t="shared" si="17"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77">
       <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
@@ -3312,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>700</v>
       </c>
       <c r="F8" s="40">
@@ -3510,21 +3691,47 @@
         <f t="shared" si="14"/>
         <v>420</v>
       </c>
-      <c r="BN8" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO8" s="42">
+      <c r="BN8" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO8" s="44">
         <v>12</v>
       </c>
-      <c r="BP8" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="42">
+      <c r="BP8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:69">
+      <c r="BR8" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS8" s="44">
+        <v>12</v>
+      </c>
+      <c r="BT8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BV8" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW8" s="42">
+        <v>12</v>
+      </c>
+      <c r="BX8" s="42">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77">
       <c r="A9" s="21" t="s">
         <v>59</v>
       </c>
@@ -3538,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
       <c r="F9" s="40">
@@ -3736,21 +3943,47 @@
         <f t="shared" si="14"/>
         <v>350</v>
       </c>
-      <c r="BN9" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO9" s="42">
-        <v>10</v>
-      </c>
-      <c r="BP9" s="42">
+      <c r="BN9" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO9" s="44">
+        <v>10</v>
+      </c>
+      <c r="BP9" s="44">
         <v>1</v>
       </c>
-      <c r="BQ9" s="42">
+      <c r="BQ9" s="44">
         <f t="shared" si="15"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="10" spans="1:69">
+      <c r="BR9" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS9" s="44">
+        <v>10</v>
+      </c>
+      <c r="BT9" s="44">
+        <v>2</v>
+      </c>
+      <c r="BU9" s="44">
+        <f t="shared" si="16"/>
+        <v>700</v>
+      </c>
+      <c r="BV9" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW9" s="42">
+        <v>12</v>
+      </c>
+      <c r="BX9" s="42">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="42">
+        <f t="shared" si="17"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77">
       <c r="A10" s="21" t="s">
         <v>73</v>
       </c>
@@ -3764,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F10" s="40">
@@ -3962,21 +4195,47 @@
         <f t="shared" si="14"/>
         <v>1400</v>
       </c>
-      <c r="BN10" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO10" s="42">
+      <c r="BN10" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO10" s="44">
         <v>30</v>
       </c>
-      <c r="BP10" s="42">
+      <c r="BP10" s="44">
         <v>1</v>
       </c>
-      <c r="BQ10" s="42">
+      <c r="BQ10" s="44">
         <f t="shared" si="15"/>
         <v>1050</v>
       </c>
-    </row>
-    <row r="11" spans="1:69">
+      <c r="BR10" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS10" s="44">
+        <v>30</v>
+      </c>
+      <c r="BT10" s="44">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="44">
+        <f t="shared" si="16"/>
+        <v>1050</v>
+      </c>
+      <c r="BV10" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW10" s="42">
+        <v>30</v>
+      </c>
+      <c r="BX10" s="42">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="42">
+        <f t="shared" si="17"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
@@ -3990,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F11" s="40">
@@ -4188,21 +4447,47 @@
         <f t="shared" si="14"/>
         <v>1260</v>
       </c>
-      <c r="BN11" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO11" s="42">
+      <c r="BN11" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO11" s="44">
         <v>12</v>
       </c>
-      <c r="BP11" s="42">
-        <v>2</v>
-      </c>
-      <c r="BQ11" s="42">
+      <c r="BP11" s="44">
+        <v>2</v>
+      </c>
+      <c r="BQ11" s="44">
         <f t="shared" si="15"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="12" spans="1:69">
+      <c r="BR11" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS11" s="44">
+        <v>12</v>
+      </c>
+      <c r="BT11" s="44">
+        <v>2</v>
+      </c>
+      <c r="BU11" s="44">
+        <f t="shared" si="16"/>
+        <v>840</v>
+      </c>
+      <c r="BV11" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW11" s="42">
+        <v>20</v>
+      </c>
+      <c r="BX11" s="42">
+        <v>2</v>
+      </c>
+      <c r="BY11" s="42">
+        <f t="shared" si="17"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77">
       <c r="A12" s="21" t="s">
         <v>61</v>
       </c>
@@ -4216,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
       <c r="F12" s="40">
@@ -4414,21 +4699,47 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BN12" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO12" s="42">
-        <v>10</v>
-      </c>
-      <c r="BP12" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="42">
+      <c r="BN12" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO12" s="44">
+        <v>10</v>
+      </c>
+      <c r="BP12" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:69">
+      <c r="BR12" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS12" s="44">
+        <v>10</v>
+      </c>
+      <c r="BT12" s="44">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW12" s="42">
+        <v>10</v>
+      </c>
+      <c r="BX12" s="42">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77">
       <c r="A13" s="21" t="s">
         <v>75</v>
       </c>
@@ -4442,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F13" s="40">
@@ -4640,21 +4951,47 @@
         <f t="shared" si="14"/>
         <v>840</v>
       </c>
-      <c r="BN13" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO13" s="42">
+      <c r="BN13" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO13" s="44">
         <v>15</v>
       </c>
-      <c r="BP13" s="42">
+      <c r="BP13" s="44">
         <v>1</v>
       </c>
-      <c r="BQ13" s="42">
+      <c r="BQ13" s="44">
         <f t="shared" si="15"/>
         <v>525</v>
       </c>
-    </row>
-    <row r="14" spans="1:69">
+      <c r="BR13" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS13" s="44">
+        <v>15</v>
+      </c>
+      <c r="BT13" s="44">
+        <v>2</v>
+      </c>
+      <c r="BU13" s="44">
+        <f t="shared" si="16"/>
+        <v>1050</v>
+      </c>
+      <c r="BV13" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW13" s="42">
+        <v>15</v>
+      </c>
+      <c r="BX13" s="42">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="42">
+        <f t="shared" si="17"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77">
       <c r="A14" s="21" t="s">
         <v>82</v>
       </c>
@@ -4668,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F14" s="41">
@@ -4866,21 +5203,47 @@
         <f t="shared" si="14"/>
         <v>560</v>
       </c>
-      <c r="BN14" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO14" s="42">
+      <c r="BN14" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO14" s="44">
         <v>8</v>
       </c>
-      <c r="BP14" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="42">
+      <c r="BP14" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:69">
+      <c r="BR14" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS14" s="44">
+        <v>8</v>
+      </c>
+      <c r="BT14" s="44">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BV14" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW14" s="42">
+        <v>10</v>
+      </c>
+      <c r="BX14" s="42">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="42">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77">
       <c r="A15" s="21" t="s">
         <v>84</v>
       </c>
@@ -4957,21 +5320,47 @@
         <f t="shared" si="14"/>
         <v>350</v>
       </c>
-      <c r="BN15" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO15" s="42">
-        <v>10</v>
-      </c>
-      <c r="BP15" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="42">
+      <c r="BN15" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO15" s="44">
+        <v>10</v>
+      </c>
+      <c r="BP15" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:69">
+      <c r="BR15" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS15" s="44">
+        <v>10</v>
+      </c>
+      <c r="BT15" s="44">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW15" s="42">
+        <v>10</v>
+      </c>
+      <c r="BX15" s="42">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77">
       <c r="A16" s="21" t="s">
         <v>62</v>
       </c>
@@ -4985,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
       <c r="F16" s="40">
@@ -5183,17 +5572,43 @@
         <f t="shared" si="14"/>
         <v>350</v>
       </c>
-      <c r="BN16" s="42">
-        <v>35</v>
-      </c>
-      <c r="BO16" s="42">
-        <v>10</v>
-      </c>
-      <c r="BP16" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="42">
+      <c r="BN16" s="44">
+        <v>35</v>
+      </c>
+      <c r="BO16" s="44">
+        <v>10</v>
+      </c>
+      <c r="BP16" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="44">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BR16" s="44">
+        <v>35</v>
+      </c>
+      <c r="BS16" s="44">
+        <v>10</v>
+      </c>
+      <c r="BT16" s="44">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BV16" s="42">
+        <v>35</v>
+      </c>
+      <c r="BW16" s="42">
+        <v>10</v>
+      </c>
+      <c r="BX16" s="42">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="42">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5205,48 +5620,48 @@
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52" t="s">
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="52"/>
-      <c r="AS17" s="52"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
       <c r="AT17" s="21" t="s">
         <v>81</v>
       </c>
@@ -5257,22 +5672,42 @@
       <c r="AY17" s="21"/>
       <c r="AZ17" s="21"/>
       <c r="BA17" s="21"/>
-      <c r="BB17" s="56" t="s">
+      <c r="BB17" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="BJ1:BM1"/>
-    <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD17:AG17"/>
+  <mergeCells count="50">
+    <mergeCell ref="BR1:BU1"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN2:BQ2"/>
+    <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="BV2:BY2"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BB17:BE17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N17:Q17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AT2:AW2"/>
@@ -5289,32 +5724,16 @@
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BF2:BI2"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BB17:BE17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD17:AG17"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E16">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5324,6 +5743,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK16">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO4:AO16">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5333,7 +5762,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO4:AO16">
+  <conditionalFormatting sqref="AS4:AS16">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4:AW16">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5343,7 +5782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS4:AS16">
+  <conditionalFormatting sqref="BA4:BA16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5353,7 +5792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW4:AW16">
+  <conditionalFormatting sqref="BI4:BI16">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5363,7 +5802,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA4:BA16">
+  <conditionalFormatting sqref="BE4:BE16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5373,7 +5812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI4:BI16">
+  <conditionalFormatting sqref="I4:I16">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5383,7 +5822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE4:BE16">
+  <conditionalFormatting sqref="M4:M16">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5393,7 +5832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I16">
+  <conditionalFormatting sqref="Q4:Q16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5403,7 +5842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M16">
+  <conditionalFormatting sqref="U4:U16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5413,7 +5852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q16">
+  <conditionalFormatting sqref="Y4:Y16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5423,7 +5862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U16">
+  <conditionalFormatting sqref="AC4:AC16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5433,7 +5872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y16">
+  <conditionalFormatting sqref="AG4:AG16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5443,7 +5882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AC16">
+  <conditionalFormatting sqref="BY4:BY16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5453,7 +5892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG16">
+  <conditionalFormatting sqref="BM4:BM16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5463,7 +5902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ4:BQ16">
+  <conditionalFormatting sqref="BU4:BU16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5473,7 +5912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM4:BM16">
+  <conditionalFormatting sqref="BQ4:BQ16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5488,6 +5927,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup lineWeight="2.25" displayEmptyCellsAs="span" high="1" displayXAxis="1">
+          <x14:colorSeries theme="1"/>
+          <x14:colorNegative rgb="FF4F81BD"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF366092"/>
+          <x14:colorLast rgb="FF366092"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF538DD5"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Kettlebell!B2:BY2</xm:f>
+              <xm:sqref>A1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -5501,22 +5956,6 @@
             <x14:sparkline>
               <xm:f>Kettlebell!B2:BA2</xm:f>
               <xm:sqref>AM24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="2.25" displayEmptyCellsAs="span" high="1" displayXAxis="1">
-          <x14:colorSeries theme="1"/>
-          <x14:colorNegative rgb="FF4F81BD"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF000000"/>
-          <x14:colorFirst rgb="FF366092"/>
-          <x14:colorLast rgb="FF366092"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF538DD5"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Kettlebell!B2:BQ2</xm:f>
-              <xm:sqref>A1</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5661,112 +6100,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="59">
+      <c r="E3" s="65">
         <v>41645</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65">
         <v>41647</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65">
         <v>41649</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59">
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65">
         <v>41650</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59">
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65">
         <v>41660</v>
       </c>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65">
         <v>41663</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59">
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65">
         <v>41671</v>
       </c>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59">
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65">
         <v>41663</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="E4" s="60">
+      <c r="E4" s="62">
         <f>SUM(H6:H21)</f>
         <v>9295</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60">
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62">
         <f>SUM(L26:L42)</f>
         <v>13880</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62">
         <f>SUM(P43:P47)</f>
         <v>9965</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60">
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62">
         <f>SUM(T6:T24)</f>
         <v>18430</v>
       </c>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60">
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62">
         <f>SUM(X44:X51)</f>
         <v>23730</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60">
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62">
         <f>SUM(AB23:AB53)</f>
         <v>17170</v>
       </c>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60">
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62">
         <f>SUM(AF23:AF53)</f>
         <v>5424</v>
       </c>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60">
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62">
         <f>SUM(AJ23:AJ53)</f>
         <v>250</v>
       </c>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
     </row>
     <row r="5" spans="2:36" ht="35" customHeight="1">
       <c r="B5" s="12"/>
@@ -6487,7 +6926,7 @@
       <c r="AJ25" s="12"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
@@ -6532,7 +6971,7 @@
       </c>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="I27" s="1">
         <v>135</v>
       </c>
@@ -6571,7 +7010,7 @@
       </c>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="62"/>
+      <c r="B28" s="61"/>
       <c r="I28" s="1">
         <v>135</v>
       </c>
@@ -6610,7 +7049,7 @@
       </c>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="62"/>
+      <c r="B29" s="61"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -6631,7 +7070,7 @@
       </c>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="62"/>
+      <c r="B30" s="61"/>
       <c r="C30" t="s">
         <v>27</v>
       </c>
@@ -6655,7 +7094,7 @@
       <c r="AF30" s="14"/>
     </row>
     <row r="31" spans="2:36">
-      <c r="B31" s="62"/>
+      <c r="B31" s="61"/>
       <c r="I31" s="1">
         <v>115</v>
       </c>
@@ -6676,7 +7115,7 @@
       <c r="AF31" s="14"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="62"/>
+      <c r="B32" s="61"/>
       <c r="I32" s="1">
         <v>115</v>
       </c>
@@ -6697,7 +7136,7 @@
       <c r="AF32" s="14"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="62"/>
+      <c r="B33" s="61"/>
       <c r="C33" t="s">
         <v>51</v>
       </c>
@@ -6712,7 +7151,7 @@
       <c r="AF33" s="14"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="62"/>
+      <c r="B34" s="61"/>
       <c r="C34" t="s">
         <v>28</v>
       </c>
@@ -6736,7 +7175,7 @@
       <c r="AF34" s="14"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="62"/>
+      <c r="B35" s="61"/>
       <c r="I35" s="1">
         <v>150</v>
       </c>
@@ -6757,7 +7196,7 @@
       <c r="AF35" s="14"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="62"/>
+      <c r="B36" s="61"/>
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -6781,7 +7220,7 @@
       <c r="AF36" s="14"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="62"/>
+      <c r="B37" s="61"/>
       <c r="I37" s="1">
         <v>25</v>
       </c>
@@ -6802,7 +7241,7 @@
       <c r="AF37" s="14"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="62"/>
+      <c r="B38" s="61"/>
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -6826,7 +7265,7 @@
       <c r="AF38" s="14"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="62"/>
+      <c r="B39" s="61"/>
       <c r="C39" t="s">
         <v>49</v>
       </c>
@@ -6850,7 +7289,7 @@
       <c r="AF39" s="14"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="62"/>
+      <c r="B40" s="61"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -6871,7 +7310,7 @@
       <c r="AF40" s="14"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="62"/>
+      <c r="B41" s="61"/>
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -6925,7 +7364,7 @@
       <c r="AF42" s="14"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="60" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -6968,7 +7407,7 @@
       <c r="AF43" s="14"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="62"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="9" t="s">
         <v>35</v>
       </c>
@@ -7030,7 +7469,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="62"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -7068,7 +7507,7 @@
       <c r="AB45" s="5"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="62"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="9" t="s">
         <v>36</v>
       </c>
@@ -7117,7 +7556,7 @@
       <c r="AB46" s="5"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="62"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -7371,18 +7810,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -7391,6 +7818,18 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -7406,6 +7845,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="5" tint="-0.249977111117893"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="6" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
+          <x14:colorLast theme="6" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="6" tint="-0.249977111117893"/>
+          <x14:colorLow theme="6" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AF4</xm:f>
+              <xm:sqref>D5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
@@ -7419,22 +7874,6 @@
             <x14:sparkline>
               <xm:f>Weights!E4:AJ4</xm:f>
               <xm:sqref>D4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="5" tint="-0.249977111117893"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="6" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="6" tint="-0.249977111117893"/>
-          <x14:colorLast theme="6" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="6" tint="-0.249977111117893"/>
-          <x14:colorLow theme="6" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AF4</xm:f>
-              <xm:sqref>D5</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/assets/lifts.xlsx
+++ b/assets/lifts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="20460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -757,6 +757,9 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,7 +772,10 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,17 +784,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="121">
@@ -1243,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1899,11 +1899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BF3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1989,12 +1989,12 @@
   <sheetData>
     <row r="1" spans="1:77" ht="40" customHeight="1">
       <c r="A1" s="53"/>
-      <c r="B1" s="55">
+      <c r="B1" s="56">
         <v>41676</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="54">
         <v>41745</v>
       </c>
@@ -2106,13 +2106,13 @@
     </row>
     <row r="2" spans="1:77">
       <c r="A2" s="53"/>
-      <c r="B2" s="56">
+      <c r="B2" s="57">
         <f>SUM(E4:E16)</f>
         <v>4270</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="50">
         <f>SUM(I4:I16)</f>
         <v>4620</v>
@@ -2180,9 +2180,9 @@
         <f>SUM(AS4:AS16)</f>
         <v>1120</v>
       </c>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="59"/>
       <c r="AT2" s="50">
         <f>SUM(AW4:AW16)</f>
         <v>8925</v>
@@ -5672,42 +5672,22 @@
       <c r="AY17" s="21"/>
       <c r="AZ17" s="21"/>
       <c r="BA17" s="21"/>
-      <c r="BB17" s="59" t="s">
+      <c r="BB17" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
+      <c r="BC17" s="55"/>
+      <c r="BD17" s="55"/>
+      <c r="BE17" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="BR1:BU1"/>
-    <mergeCell ref="BR2:BU2"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="BV1:BY1"/>
-    <mergeCell ref="BV2:BY2"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BF2:BI2"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BB17:BE17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AT2:AW2"/>
@@ -5724,13 +5704,33 @@
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="BJ1:BM1"/>
-    <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BB17:BE17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="BR1:BU1"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN2:BQ2"/>
+    <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="BV2:BY2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E16">
     <cfRule type="colorScale" priority="20">
@@ -5927,6 +5927,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Kettlebell!B2:BA2</xm:f>
+              <xm:sqref>AM24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup lineWeight="2.25" displayEmptyCellsAs="span" high="1" displayXAxis="1">
           <x14:colorSeries theme="1"/>
           <x14:colorNegative rgb="FF4F81BD"/>
@@ -5943,22 +5959,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Kettlebell!B2:BA2</xm:f>
-              <xm:sqref>AM24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5972,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="400" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6052,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
@@ -6100,112 +6100,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:36">
-      <c r="E3" s="65">
+      <c r="E3" s="60">
         <v>41645</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60">
         <v>41647</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60">
         <v>41649</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65">
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60">
         <v>41650</v>
       </c>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65">
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60">
         <v>41660</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65">
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60">
         <v>41663</v>
       </c>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65">
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60">
         <v>41671</v>
       </c>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65">
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60">
         <v>41663</v>
       </c>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <f>SUM(H6:H21)</f>
         <v>9295</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61">
         <f>SUM(L26:L42)</f>
         <v>13880</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61">
         <f>SUM(P43:P47)</f>
         <v>9965</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62">
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61">
         <f>SUM(T6:T24)</f>
         <v>18430</v>
       </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62">
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61">
         <f>SUM(X44:X51)</f>
         <v>23730</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62">
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61">
         <f>SUM(AB23:AB53)</f>
         <v>17170</v>
       </c>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62">
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61">
         <f>SUM(AF23:AF53)</f>
         <v>5424</v>
       </c>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62">
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61">
         <f>SUM(AJ23:AJ53)</f>
         <v>250</v>
       </c>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
     </row>
     <row r="5" spans="2:36" ht="35" customHeight="1">
       <c r="B5" s="12"/>
@@ -6313,7 +6313,7 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
@@ -6332,7 +6332,7 @@
         <f>E6*F6*G6</f>
         <v>3375</v>
       </c>
-      <c r="O6" s="63"/>
+      <c r="O6" s="64"/>
       <c r="Q6" s="2">
         <v>135</v>
       </c>
@@ -6360,12 +6360,12 @@
       <c r="AF6" s="14"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="O7" s="63"/>
+      <c r="O7" s="64"/>
       <c r="Q7" s="2">
         <v>185</v>
       </c>
@@ -6381,12 +6381,12 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="O8" s="63"/>
+      <c r="O8" s="64"/>
       <c r="Q8" s="2">
         <v>185</v>
       </c>
@@ -6402,7 +6402,7 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -6419,14 +6419,14 @@
         <f t="shared" ref="H9:H21" si="1">E9*F9*G9</f>
         <v>360</v>
       </c>
-      <c r="O9" s="63"/>
+      <c r="O9" s="64"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="E10" s="1">
         <v>70</v>
       </c>
@@ -6440,14 +6440,14 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="O10" s="63"/>
+      <c r="O10" s="64"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="63"/>
+      <c r="B11" s="64"/>
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6464,7 +6464,7 @@
         <f t="shared" si="1"/>
         <v>1520</v>
       </c>
-      <c r="O11" s="63"/>
+      <c r="O11" s="64"/>
       <c r="Q11" s="2">
         <v>95</v>
       </c>
@@ -6480,12 +6480,12 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="O12" s="63"/>
+      <c r="O12" s="64"/>
       <c r="Q12" s="2">
         <v>135</v>
       </c>
@@ -6501,19 +6501,19 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="O13" s="63"/>
+      <c r="O13" s="64"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" t="s">
         <v>42</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="O14" s="63"/>
+      <c r="O14" s="64"/>
       <c r="Q14" s="2">
         <v>20</v>
       </c>
@@ -6537,12 +6537,12 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="O15" s="63"/>
+      <c r="O15" s="64"/>
       <c r="Q15" s="2">
         <v>30</v>
       </c>
@@ -6558,7 +6558,7 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" t="s">
         <v>43</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="O16" s="63"/>
+      <c r="O16" s="64"/>
       <c r="Q16" s="2">
         <v>105</v>
       </c>
@@ -6582,12 +6582,12 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="O17" s="63"/>
+      <c r="O17" s="64"/>
       <c r="Q17" s="2">
         <v>120</v>
       </c>
@@ -6603,12 +6603,12 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="O18" s="63"/>
+      <c r="O18" s="64"/>
       <c r="Q18" s="2">
         <v>150</v>
       </c>
@@ -6624,7 +6624,7 @@
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="63"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="63"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="10">
         <v>80</v>
@@ -6660,7 +6660,7 @@
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="63"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
@@ -6673,7 +6673,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="63"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="10">
         <v>90</v>
@@ -6694,7 +6694,7 @@
       <c r="X20" s="9"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="63"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="63"/>
+      <c r="O21" s="64"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="10">
         <v>40</v>
@@ -6926,7 +6926,7 @@
       <c r="AJ25" s="12"/>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="27" spans="2:36">
-      <c r="B27" s="61"/>
+      <c r="B27" s="63"/>
       <c r="I27" s="1">
         <v>135</v>
       </c>
@@ -7010,7 +7010,7 @@
       </c>
     </row>
     <row r="28" spans="2:36">
-      <c r="B28" s="61"/>
+      <c r="B28" s="63"/>
       <c r="I28" s="1">
         <v>135</v>
       </c>
@@ -7049,7 +7049,7 @@
       </c>
     </row>
     <row r="29" spans="2:36">
-      <c r="B29" s="61"/>
+      <c r="B29" s="63"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -7070,7 +7070,7 @@
       </c>
     </row>
     <row r="30" spans="2:36">
-      <c r="B30" s="61"/>
+      <c r="B30" s="63"/>
       <c r="C30" t="s">
         <v>27</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="AF30" s="14"/>
     </row>
     <row r="31" spans="2:36">
-      <c r="B31" s="61"/>
+      <c r="B31" s="63"/>
       <c r="I31" s="1">
         <v>115</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="AF31" s="14"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="B32" s="61"/>
+      <c r="B32" s="63"/>
       <c r="I32" s="1">
         <v>115</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="AF32" s="14"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="61"/>
+      <c r="B33" s="63"/>
       <c r="C33" t="s">
         <v>51</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="AF33" s="14"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="61"/>
+      <c r="B34" s="63"/>
       <c r="C34" t="s">
         <v>28</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="AF34" s="14"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="61"/>
+      <c r="B35" s="63"/>
       <c r="I35" s="1">
         <v>150</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="AF35" s="14"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="61"/>
+      <c r="B36" s="63"/>
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="AF36" s="14"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="61"/>
+      <c r="B37" s="63"/>
       <c r="I37" s="1">
         <v>25</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="AF37" s="14"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="61"/>
+      <c r="B38" s="63"/>
       <c r="C38" t="s">
         <v>30</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="AF38" s="14"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="61"/>
+      <c r="B39" s="63"/>
       <c r="C39" t="s">
         <v>49</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="AF39" s="14"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="61"/>
+      <c r="B40" s="63"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -7310,7 +7310,7 @@
       <c r="AF40" s="14"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="61"/>
+      <c r="B41" s="63"/>
       <c r="C41" t="s">
         <v>31</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="AF41" s="14"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="64"/>
+      <c r="B42" s="65"/>
       <c r="I42" s="1">
         <v>100</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="AF42" s="14"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -7407,7 +7407,7 @@
       <c r="AF43" s="14"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="61"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="9" t="s">
         <v>35</v>
       </c>
@@ -7469,7 +7469,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="61"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -7507,7 +7507,7 @@
       <c r="AB45" s="5"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="61"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="9" t="s">
         <v>36</v>
       </c>
@@ -7556,7 +7556,7 @@
       <c r="AB46" s="5"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="61"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -7810,6 +7810,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B26:B42"/>
+    <mergeCell ref="O6:O21"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="AG3:AJ3"/>
@@ -7818,18 +7830,6 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B26:B42"/>
-    <mergeCell ref="O6:O21"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H21 L26:L42 P43:P47 T6:T24 AB23:AB28 X44:X51 AB39:AB41 AB53 AC23:AE23 AG23:AI23">
     <cfRule type="colorScale" priority="4">
@@ -7845,6 +7845,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Weights!E4:AJ4</xm:f>
+              <xm:sqref>D4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries theme="5" tint="-0.249977111117893"/>
           <x14:colorNegative theme="6"/>
@@ -7858,22 +7874,6 @@
             <x14:sparkline>
               <xm:f>Weights!E4:AF4</xm:f>
               <xm:sqref>D5</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
-          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
-          <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow theme="4"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Weights!E4:AJ4</xm:f>
-              <xm:sqref>D4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
